--- a/medicine/Psychotrope/Couleur_Café/Couleur_Café.xlsx
+++ b/medicine/Psychotrope/Couleur_Café/Couleur_Café.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Couleur_Caf%C3%A9</t>
+          <t>Couleur_Café</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Couleur café est une chanson de Serge Gainsbourg, parue en single en 1964. Vingt-quatre ans plus tard, une version live enregistrée au Zénith de Paris est parue en single.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Couleur_Caf%C3%A9</t>
+          <t>Couleur_Café</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Reprises</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1996, Jane Birkin reprend le titre dans son album Versions Jane, avec des arrangements et percussions de Doudou N'diaye Rose.
 En 1996, le chanteur haïtien Beethova Obas reprend le titre sur son album Pa Prese.
